--- a/大陸シリーズ目次順番.xlsx
+++ b/大陸シリーズ目次順番.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Desktop\BTAP開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Downloads\TanoContSeries-TanoContBTAP4 b(7)\TanoContSeries-TanoContBTAP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D6B80A-4B08-4ED6-8C73-4E474C495338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611AEFD-5A90-4108-851A-0302B1911D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E96F2A6A-F138-4C1D-8914-69711554E5DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{E96F2A6A-F138-4C1D-8914-69711554E5DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="やりかたについて" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="HTML" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
   <si>
     <t>Dictionary</t>
   </si>
@@ -503,6 +503,20 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kazasaki2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二章後編</t>
+    <rPh sb="0" eb="3">
+      <t>ダイニショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウヘン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,7 +894,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -913,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8546C6-5C23-4432-926E-DD5F7D04EAE7}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -954,10 +968,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -969,7 +983,7 @@
         <v>94</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -977,13 +991,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -992,64 +1006,64 @@
         <v>94</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1061,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -1069,36 +1083,36 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -1107,18 +1121,18 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1130,18 +1144,18 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1153,18 +1167,18 @@
         <v>42</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1176,21 +1190,21 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -1199,18 +1213,18 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1222,18 +1236,18 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1245,18 +1259,18 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1268,18 +1282,18 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1291,18 +1305,18 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1314,18 +1328,18 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1337,41 +1351,41 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1383,18 +1397,18 @@
         <v>44</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1406,21 +1420,21 @@
         <v>44</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1429,21 +1443,21 @@
         <v>44</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1452,21 +1466,21 @@
         <v>44</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1475,18 +1489,18 @@
         <v>44</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1498,21 +1512,21 @@
         <v>44</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -1521,21 +1535,21 @@
         <v>44</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -1544,41 +1558,41 @@
         <v>44</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1590,21 +1604,21 @@
         <v>43</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
@@ -1613,21 +1627,21 @@
         <v>43</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -1636,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -1644,10 +1658,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1659,18 +1673,18 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -1682,18 +1696,18 @@
         <v>43</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -1705,18 +1719,18 @@
         <v>43</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -1728,18 +1742,18 @@
         <v>43</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1751,7 +1765,7 @@
         <v>43</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>18</v>
@@ -1759,10 +1773,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1774,64 +1788,64 @@
         <v>43</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -1849,9 +1863,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G38" xr:uid="{BE8546C6-5C23-4432-926E-DD5F7D04EAE7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
       <sortCondition descending="1" ref="F1:F38"/>
     </sortState>
   </autoFilter>
@@ -1865,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5974BF-177C-4A7E-B25D-A67418C6F9A6}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1890,15 +1927,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A2 &amp; IF(Sheet1!C2, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Kazasaki)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Kazasaki2)'&gt;</v>
       </c>
       <c r="B2" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B2 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;第二章前編&lt;/td&gt;</v>
+        <v>&lt;td&gt;第二章後編&lt;/td&gt;</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A2 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Kazasaki&lt;/td&gt;</v>
+        <v>&lt;td&gt;Kazasaki2&lt;/td&gt;</v>
       </c>
       <c r="D2" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E2 &amp; "'&gt;" &amp; Sheet1!D2 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -1906,7 +1943,7 @@
       </c>
       <c r="E2" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F2 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;38&lt;/td&gt;</v>
       </c>
       <c r="F2" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G2 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -1916,15 +1953,15 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A3 &amp; IF(Sheet1!C3, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Mitsuyoshi, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Kazasaki)'&gt;</v>
       </c>
       <c r="B3" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B3 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;第一章&lt;/td&gt;</v>
+        <v>&lt;td&gt;第二章前編&lt;/td&gt;</v>
       </c>
       <c r="C3" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A3 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Mitsuyoshi&lt;/td&gt;</v>
+        <v>&lt;td&gt;Kazasaki&lt;/td&gt;</v>
       </c>
       <c r="D3" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E3 &amp; "'&gt;" &amp; Sheet1!D3 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -1932,77 +1969,77 @@
       </c>
       <c r="E3" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F3 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;</v>
       </c>
       <c r="F3" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G3 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A4 &amp; IF(Sheet1!C4, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Nitori, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Mitsuyoshi, true)'&gt;</v>
       </c>
       <c r="B4" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B4 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;二鳥からの手紙&lt;/td&gt;</v>
+        <v>&lt;td&gt;第一章&lt;/td&gt;</v>
       </c>
       <c r="C4" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A4 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Nitori&lt;/td&gt;</v>
+        <v>&lt;td&gt;Mitsuyoshi&lt;/td&gt;</v>
       </c>
       <c r="D4" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E4 &amp; "'&gt;" &amp; Sheet1!D4 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag kazasaki'&gt;5.風咲&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E4" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F4 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;</v>
       </c>
       <c r="F4" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G4 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A5 &amp; IF(Sheet1!C5, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(RNakia, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Nitori, true)'&gt;</v>
       </c>
       <c r="B5" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B5 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;伝説の復古&lt;/td&gt;</v>
+        <v>&lt;td&gt;二鳥からの手紙&lt;/td&gt;</v>
       </c>
       <c r="C5" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A5 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;RNakia&lt;/td&gt;</v>
+        <v>&lt;td&gt;Nitori&lt;/td&gt;</v>
       </c>
       <c r="D5" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E5 &amp; "'&gt;" &amp; Sheet1!D5 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag sana'&gt;4.サナ&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E5" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F5 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;</v>
       </c>
       <c r="F5" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G5 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A6 &amp; IF(Sheet1!C6, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Habaic, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(RNakia, true)'&gt;</v>
       </c>
       <c r="B6" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B6 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;流星の夜&lt;/td&gt;</v>
+        <v>&lt;td&gt;伝説の復古&lt;/td&gt;</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A6 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Habaic&lt;/td&gt;</v>
+        <v>&lt;td&gt;RNakia&lt;/td&gt;</v>
       </c>
       <c r="D6" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E6 &amp; "'&gt;" &amp; Sheet1!D6 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2010,7 +2047,7 @@
       </c>
       <c r="E6" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F6 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;</v>
       </c>
       <c r="F6" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -2020,41 +2057,41 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A7 &amp; IF(Sheet1!C7, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Utagemaru, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Habaic, true)'&gt;</v>
       </c>
       <c r="B7" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B7 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;宴丸の使命&lt;/td&gt;</v>
+        <v>&lt;td&gt;流星の夜&lt;/td&gt;</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A7 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Utagemaru&lt;/td&gt;</v>
+        <v>&lt;td&gt;Habaic&lt;/td&gt;</v>
       </c>
       <c r="D7" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E7 &amp; "'&gt;" &amp; Sheet1!D7 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag sana'&gt;4.サナ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E7" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F7 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;</v>
       </c>
       <c r="F7" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A8 &amp; IF(Sheet1!C8, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Meiju)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Utagemaru, true)'&gt;</v>
       </c>
       <c r="B8" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B8 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;空船なりの忠誠&lt;/td&gt;</v>
+        <v>&lt;td&gt;宴丸の使命&lt;/td&gt;</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A8 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Meiju&lt;/td&gt;</v>
+        <v>&lt;td&gt;Utagemaru&lt;/td&gt;</v>
       </c>
       <c r="D8" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E8 &amp; "'&gt;" &amp; Sheet1!D8 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2062,25 +2099,25 @@
       </c>
       <c r="E8" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F8 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;</v>
       </c>
       <c r="F8" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G8 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A9 &amp; IF(Sheet1!C9, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Seri)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Meiju)'&gt;</v>
       </c>
       <c r="B9" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B9 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;カッターの戦略&lt;/td&gt;</v>
+        <v>&lt;td&gt;空船なりの忠誠&lt;/td&gt;</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A9 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Seri&lt;/td&gt;</v>
+        <v>&lt;td&gt;Meiju&lt;/td&gt;</v>
       </c>
       <c r="D9" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E9 &amp; "'&gt;" &amp; Sheet1!D9 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2088,25 +2125,25 @@
       </c>
       <c r="E9" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F9 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;</v>
       </c>
       <c r="F9" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A10 &amp; IF(Sheet1!C10, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Uzinos)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Seri)'&gt;</v>
       </c>
       <c r="B10" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B10 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;永王の衝撃&lt;/td&gt;</v>
+        <v>&lt;td&gt;カッターの戦略&lt;/td&gt;</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A10 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Uzinos&lt;/td&gt;</v>
+        <v>&lt;td&gt;Seri&lt;/td&gt;</v>
       </c>
       <c r="D10" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E10 &amp; "'&gt;" &amp; Sheet1!D10 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2114,25 +2151,25 @@
       </c>
       <c r="E10" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F10 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;</v>
       </c>
       <c r="F10" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A11 &amp; IF(Sheet1!C11, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Goeibara)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Uzinos)'&gt;</v>
       </c>
       <c r="B11" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B11 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;永王への帰依&lt;/td&gt;</v>
+        <v>&lt;td&gt;永王の衝撃&lt;/td&gt;</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A11 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Goeibara&lt;/td&gt;</v>
+        <v>&lt;td&gt;Uzinos&lt;/td&gt;</v>
       </c>
       <c r="D11" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E11 &amp; "'&gt;" &amp; Sheet1!D11 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2140,25 +2177,25 @@
       </c>
       <c r="E11" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F11 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;</v>
       </c>
       <c r="F11" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A12 &amp; IF(Sheet1!C12, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Gerufaru, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Goeibara)'&gt;</v>
       </c>
       <c r="B12" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B12 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ゲルファルの身の上&lt;/td&gt;</v>
+        <v>&lt;td&gt;永王への帰依&lt;/td&gt;</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A12 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Gerufaru&lt;/td&gt;</v>
+        <v>&lt;td&gt;Goeibara&lt;/td&gt;</v>
       </c>
       <c r="D12" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E12 &amp; "'&gt;" &amp; Sheet1!D12 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2166,25 +2203,25 @@
       </c>
       <c r="E12" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F12 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;</v>
       </c>
       <c r="F12" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G12 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A13 &amp; IF(Sheet1!C13, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Gebu, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Gerufaru, true)'&gt;</v>
       </c>
       <c r="B13" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B13 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;迷い子ゲブ&lt;/td&gt;</v>
+        <v>&lt;td&gt;ゲルファルの身の上&lt;/td&gt;</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A13 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Gebu&lt;/td&gt;</v>
+        <v>&lt;td&gt;Gerufaru&lt;/td&gt;</v>
       </c>
       <c r="D13" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E13 &amp; "'&gt;" &amp; Sheet1!D13 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2192,25 +2229,25 @@
       </c>
       <c r="E13" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F13 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;</v>
       </c>
       <c r="F13" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G13 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A14 &amp; IF(Sheet1!C14, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Paripero, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Gebu, true)'&gt;</v>
       </c>
       <c r="B14" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B14 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;禁忌知見集&lt;/td&gt;</v>
+        <v>&lt;td&gt;迷い子ゲブ&lt;/td&gt;</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A14 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Paripero&lt;/td&gt;</v>
+        <v>&lt;td&gt;Gebu&lt;/td&gt;</v>
       </c>
       <c r="D14" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E14 &amp; "'&gt;" &amp; Sheet1!D14 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2218,25 +2255,25 @@
       </c>
       <c r="E14" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F14 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;</v>
       </c>
       <c r="F14" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G14 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A15 &amp; IF(Sheet1!C15, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Akisato, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Paripero, true)'&gt;</v>
       </c>
       <c r="B15" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B15 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ばせる様の進軍&lt;/td&gt;</v>
+        <v>&lt;td&gt;禁忌知見集&lt;/td&gt;</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A15 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Akisato&lt;/td&gt;</v>
+        <v>&lt;td&gt;Paripero&lt;/td&gt;</v>
       </c>
       <c r="D15" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E15 &amp; "'&gt;" &amp; Sheet1!D15 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2244,25 +2281,25 @@
       </c>
       <c r="E15" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F15 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;</v>
       </c>
       <c r="F15" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G15 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A16 &amp; IF(Sheet1!C16, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Baseru, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Akisato, true)'&gt;</v>
       </c>
       <c r="B16" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B16 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;あらわれるばせる様&lt;/td&gt;</v>
+        <v>&lt;td&gt;ばせる様の進軍&lt;/td&gt;</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A16 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Baseru&lt;/td&gt;</v>
+        <v>&lt;td&gt;Akisato&lt;/td&gt;</v>
       </c>
       <c r="D16" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E16 &amp; "'&gt;" &amp; Sheet1!D16 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2270,25 +2307,25 @@
       </c>
       <c r="E16" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F16 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;</v>
       </c>
       <c r="F16" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A17 &amp; IF(Sheet1!C17, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Yoshine2, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Baseru, true)'&gt;</v>
       </c>
       <c r="B17" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B17 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ばせる様の暴動と芦音&lt;/td&gt;</v>
+        <v>&lt;td&gt;あらわれるばせる様&lt;/td&gt;</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A17 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Yoshine2&lt;/td&gt;</v>
+        <v>&lt;td&gt;Baseru&lt;/td&gt;</v>
       </c>
       <c r="D17" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E17 &amp; "'&gt;" &amp; Sheet1!D17 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2296,25 +2333,25 @@
       </c>
       <c r="E17" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F17 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;</v>
       </c>
       <c r="F17" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G17 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A18 &amp; IF(Sheet1!C18, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Umiao, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Yoshine2, true)'&gt;</v>
       </c>
       <c r="B18" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B18 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;緑ヶ淵の閉山&lt;/td&gt;</v>
+        <v>&lt;td&gt;ばせる様の暴動と芦音&lt;/td&gt;</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A18 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Umiao&lt;/td&gt;</v>
+        <v>&lt;td&gt;Yoshine2&lt;/td&gt;</v>
       </c>
       <c r="D18" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E18 &amp; "'&gt;" &amp; Sheet1!D18 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2322,51 +2359,51 @@
       </c>
       <c r="E18" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F18 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;</v>
       </c>
       <c r="F18" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G18 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A19 &amp; IF(Sheet1!C19, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda5_2)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Umiao, true)'&gt;</v>
       </c>
       <c r="B19" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B19 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;おわり、その先へ2&lt;/td&gt;</v>
+        <v>&lt;td&gt;緑ヶ淵の閉山&lt;/td&gt;</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A19 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda5_2&lt;/td&gt;</v>
+        <v>&lt;td&gt;Umiao&lt;/td&gt;</v>
       </c>
       <c r="D19" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E19 &amp; "'&gt;" &amp; Sheet1!D19 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E19" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F19 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;20&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;</v>
       </c>
       <c r="F19" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G19 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A20 &amp; IF(Sheet1!C20, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda5_1)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda5_2)'&gt;</v>
       </c>
       <c r="B20" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B20 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;おわり、その先へ1&lt;/td&gt;</v>
+        <v>&lt;td&gt;おわり、その先へ2&lt;/td&gt;</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A20 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda5_1&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda5_2&lt;/td&gt;</v>
       </c>
       <c r="D20" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E20 &amp; "'&gt;" &amp; Sheet1!D20 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2374,25 +2411,25 @@
       </c>
       <c r="E20" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F20 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;20&lt;/td&gt;</v>
       </c>
       <c r="F20" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G20 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A21 &amp; IF(Sheet1!C21, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda4)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda5_1)'&gt;</v>
       </c>
       <c r="B21" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B21 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;光の足音と背後&lt;/td&gt;</v>
+        <v>&lt;td&gt;おわり、その先へ1&lt;/td&gt;</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A21 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda4&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda5_1&lt;/td&gt;</v>
       </c>
       <c r="D21" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E21 &amp; "'&gt;" &amp; Sheet1!D21 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2400,25 +2437,25 @@
       </c>
       <c r="E21" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F21 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;18&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;</v>
       </c>
       <c r="F21" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G21 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A22 &amp; IF(Sheet1!C22, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Hitami2, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda4)'&gt;</v>
       </c>
       <c r="B22" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B22 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;煙石様の再来&lt;/td&gt;</v>
+        <v>&lt;td&gt;光の足音と背後&lt;/td&gt;</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A22 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Hitami2&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda4&lt;/td&gt;</v>
       </c>
       <c r="D22" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E22 &amp; "'&gt;" &amp; Sheet1!D22 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2426,25 +2463,25 @@
       </c>
       <c r="E22" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F22 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;18&lt;/td&gt;</v>
       </c>
       <c r="F22" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G22 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A23 &amp; IF(Sheet1!C23, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Kurokasa)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Hitami2, true)'&gt;</v>
       </c>
       <c r="B23" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B23 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;大鹿が呼ぶ&lt;/td&gt;</v>
+        <v>&lt;td&gt;煙石様の再来&lt;/td&gt;</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A23 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Kurokasa&lt;/td&gt;</v>
+        <v>&lt;td&gt;Hitami2&lt;/td&gt;</v>
       </c>
       <c r="D23" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E23 &amp; "'&gt;" &amp; Sheet1!D23 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2452,25 +2489,25 @@
       </c>
       <c r="E23" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F23 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;16&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;</v>
       </c>
       <c r="F23" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G23 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A24 &amp; IF(Sheet1!C24, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Inome3, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Kurokasa)'&gt;</v>
       </c>
       <c r="B24" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B24 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;猪目の失態と動揺&lt;/td&gt;</v>
+        <v>&lt;td&gt;大鹿が呼ぶ&lt;/td&gt;</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A24 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Inome3&lt;/td&gt;</v>
+        <v>&lt;td&gt;Kurokasa&lt;/td&gt;</v>
       </c>
       <c r="D24" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E24 &amp; "'&gt;" &amp; Sheet1!D24 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2478,25 +2515,25 @@
       </c>
       <c r="E24" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F24 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;16&lt;/td&gt;</v>
       </c>
       <c r="F24" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G24 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A25 &amp; IF(Sheet1!C25, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda3, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Inome3, true)'&gt;</v>
       </c>
       <c r="B25" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B25 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ミンダの夢と黒傘の不安&lt;/td&gt;</v>
+        <v>&lt;td&gt;猪目の失態と動揺&lt;/td&gt;</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A25 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda3&lt;/td&gt;</v>
+        <v>&lt;td&gt;Inome3&lt;/td&gt;</v>
       </c>
       <c r="D25" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E25 &amp; "'&gt;" &amp; Sheet1!D25 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2504,25 +2541,25 @@
       </c>
       <c r="E25" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F25 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;</v>
       </c>
       <c r="F25" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G25 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A26 &amp; IF(Sheet1!C26, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Inome2)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda3, true)'&gt;</v>
       </c>
       <c r="B26" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B26 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;揺れ動く猪目&lt;/td&gt;</v>
+        <v>&lt;td&gt;ミンダの夢と黒傘の不安&lt;/td&gt;</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A26 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Inome2&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda3&lt;/td&gt;</v>
       </c>
       <c r="D26" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E26 &amp; "'&gt;" &amp; Sheet1!D26 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2530,25 +2567,25 @@
       </c>
       <c r="E26" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F26 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;</v>
       </c>
       <c r="F26" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G26 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A27 &amp; IF(Sheet1!C27, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Hitami, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Inome2)'&gt;</v>
       </c>
       <c r="B27" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B27 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ひたみの苦悩&lt;/td&gt;</v>
+        <v>&lt;td&gt;揺れ動く猪目&lt;/td&gt;</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A27 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Hitami&lt;/td&gt;</v>
+        <v>&lt;td&gt;Inome2&lt;/td&gt;</v>
       </c>
       <c r="D27" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E27 &amp; "'&gt;" &amp; Sheet1!D27 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2556,51 +2593,51 @@
       </c>
       <c r="E27" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F27 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;</v>
       </c>
       <c r="F27" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G27 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A28 &amp; IF(Sheet1!C28, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Yoshine)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Hitami, true)'&gt;</v>
       </c>
       <c r="B28" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B28 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;爆薬運搬任務&lt;/td&gt;</v>
+        <v>&lt;td&gt;ひたみの苦悩&lt;/td&gt;</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A28 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Yoshine&lt;/td&gt;</v>
+        <v>&lt;td&gt;Hitami&lt;/td&gt;</v>
       </c>
       <c r="D28" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E28 &amp; "'&gt;" &amp; Sheet1!D28 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E28" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F28 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;</v>
       </c>
       <c r="F28" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G28 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A29 &amp; IF(Sheet1!C29, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Ippu)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Yoshine)'&gt;</v>
       </c>
       <c r="B29" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B29 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;大鉱機の計画&lt;/td&gt;</v>
+        <v>&lt;td&gt;爆薬運搬任務&lt;/td&gt;</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A29 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Ippu&lt;/td&gt;</v>
+        <v>&lt;td&gt;Yoshine&lt;/td&gt;</v>
       </c>
       <c r="D29" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E29 &amp; "'&gt;" &amp; Sheet1!D29 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2608,25 +2645,25 @@
       </c>
       <c r="E29" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F29 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;</v>
       </c>
       <c r="F29" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G29 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A30 &amp; IF(Sheet1!C30, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Suihoun, true)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Ippu)'&gt;</v>
       </c>
       <c r="B30" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B30 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;乾いた大地、氷の大地&lt;/td&gt;</v>
+        <v>&lt;td&gt;大鉱機の計画&lt;/td&gt;</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A30 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Suihoun&lt;/td&gt;</v>
+        <v>&lt;td&gt;Ippu&lt;/td&gt;</v>
       </c>
       <c r="D30" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E30 &amp; "'&gt;" &amp; Sheet1!D30 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2634,25 +2671,25 @@
       </c>
       <c r="E30" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F30 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;</v>
       </c>
       <c r="F30" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G30 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A31 &amp; IF(Sheet1!C31, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Fumi)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Suihoun, true)'&gt;</v>
       </c>
       <c r="B31" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B31 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;五黒家と根の教会&lt;/td&gt;</v>
+        <v>&lt;td&gt;乾いた大地、氷の大地&lt;/td&gt;</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A31 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Fumi&lt;/td&gt;</v>
+        <v>&lt;td&gt;Suihoun&lt;/td&gt;</v>
       </c>
       <c r="D31" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E31 &amp; "'&gt;" &amp; Sheet1!D31 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2660,7 +2697,7 @@
       </c>
       <c r="E31" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F31 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;</v>
       </c>
       <c r="F31" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G31 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -2670,15 +2707,15 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A32 &amp; IF(Sheet1!C32, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Baruru)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Fumi)'&gt;</v>
       </c>
       <c r="B32" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B32 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;バルルとニシン&lt;/td&gt;</v>
+        <v>&lt;td&gt;五黒家と根の教会&lt;/td&gt;</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A32 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Baruru&lt;/td&gt;</v>
+        <v>&lt;td&gt;Fumi&lt;/td&gt;</v>
       </c>
       <c r="D32" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E32 &amp; "'&gt;" &amp; Sheet1!D32 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2686,25 +2723,25 @@
       </c>
       <c r="E32" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F32 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;</v>
       </c>
       <c r="F32" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G32 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A33 &amp; IF(Sheet1!C33, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Sachi)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Baruru)'&gt;</v>
       </c>
       <c r="B33" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B33 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;白霧鉄山にて&lt;/td&gt;</v>
+        <v>&lt;td&gt;バルルとニシン&lt;/td&gt;</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A33 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Sachi&lt;/td&gt;</v>
+        <v>&lt;td&gt;Baruru&lt;/td&gt;</v>
       </c>
       <c r="D33" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E33 &amp; "'&gt;" &amp; Sheet1!D33 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2712,25 +2749,25 @@
       </c>
       <c r="E33" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F33 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;</v>
       </c>
       <c r="F33" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G33 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A34 &amp; IF(Sheet1!C34, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Sakuma)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Sachi)'&gt;</v>
       </c>
       <c r="B34" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B34 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;池家さくまの雑務&lt;/td&gt;</v>
+        <v>&lt;td&gt;白霧鉄山にて&lt;/td&gt;</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A34 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Sakuma&lt;/td&gt;</v>
+        <v>&lt;td&gt;Sachi&lt;/td&gt;</v>
       </c>
       <c r="D34" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E34 &amp; "'&gt;" &amp; Sheet1!D34 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2738,25 +2775,25 @@
       </c>
       <c r="E34" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F34 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;</v>
       </c>
       <c r="F34" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G34 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A35 &amp; IF(Sheet1!C35, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Inome)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Sakuma)'&gt;</v>
       </c>
       <c r="B35" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B35 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;猪目 遥音の出張&lt;/td&gt;</v>
+        <v>&lt;td&gt;池家さくまの雑務&lt;/td&gt;</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A35 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Inome&lt;/td&gt;</v>
+        <v>&lt;td&gt;Sakuma&lt;/td&gt;</v>
       </c>
       <c r="D35" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E35 &amp; "'&gt;" &amp; Sheet1!D35 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2764,25 +2801,25 @@
       </c>
       <c r="E35" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F35 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;</v>
       </c>
       <c r="F35" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G35 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A36 &amp; IF(Sheet1!C36, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda2)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Inome)'&gt;</v>
       </c>
       <c r="B36" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B36 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ミンダと赤い魚&lt;/td&gt;</v>
+        <v>&lt;td&gt;猪目 遥音の出張&lt;/td&gt;</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A36 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda2&lt;/td&gt;</v>
+        <v>&lt;td&gt;Inome&lt;/td&gt;</v>
       </c>
       <c r="D36" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E36 &amp; "'&gt;" &amp; Sheet1!D36 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2790,7 +2827,7 @@
       </c>
       <c r="E36" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F36 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;</v>
       </c>
       <c r="F36" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G36 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
@@ -2800,15 +2837,15 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A37 &amp; IF(Sheet1!C37, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Minda)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda2)'&gt;</v>
       </c>
       <c r="B37" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B37 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;黒縄のミンダ&lt;/td&gt;</v>
+        <v>&lt;td&gt;ミンダと赤い魚&lt;/td&gt;</v>
       </c>
       <c r="C37" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A37 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Minda&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda2&lt;/td&gt;</v>
       </c>
       <c r="D37" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E37 &amp; "'&gt;" &amp; Sheet1!D37 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2816,77 +2853,77 @@
       </c>
       <c r="E37" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F37 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;2&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;</v>
       </c>
       <c r="F37" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G37 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A38 &amp; IF(Sheet1!C38, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Kunugi)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Minda)'&gt;</v>
       </c>
       <c r="B38" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B38 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;櫟木の一日&lt;/td&gt;</v>
+        <v>&lt;td&gt;黒縄のミンダ&lt;/td&gt;</v>
       </c>
       <c r="C38" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A38 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Kunugi&lt;/td&gt;</v>
+        <v>&lt;td&gt;Minda&lt;/td&gt;</v>
       </c>
       <c r="D38" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E38 &amp; "'&gt;" &amp; Sheet1!D38 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E38" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F38 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;2&lt;/td&gt;</v>
       </c>
       <c r="F38" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G38 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A39 &amp; IF(Sheet1!C39, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Abstract)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Kunugi)'&gt;</v>
       </c>
       <c r="B39" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B39 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;あらすじ&lt;/td&gt;</v>
+        <v>&lt;td&gt;櫟木の一日&lt;/td&gt;</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A39 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Abstract&lt;/td&gt;</v>
+        <v>&lt;td&gt;Kunugi&lt;/td&gt;</v>
       </c>
       <c r="D39" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E39 &amp; "'&gt;" &amp; Sheet1!D39 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E39" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F39 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;</v>
       </c>
       <c r="F39" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G39 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;38&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A40 &amp; IF(Sheet1!C40, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data(Dictionary)'&gt;</v>
+        <v>&lt;tr onclick='load_data(Abstract)'&gt;</v>
       </c>
       <c r="B40" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B40 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;辞書&lt;/td&gt;</v>
+        <v>&lt;td&gt;あらすじ&lt;/td&gt;</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A40 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;Dictionary&lt;/td&gt;</v>
+        <v>&lt;td&gt;Abstract&lt;/td&gt;</v>
       </c>
       <c r="D40" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E40 &amp; "'&gt;" &amp; Sheet1!D40 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
@@ -2904,27 +2941,27 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A41 &amp; IF(Sheet1!C41, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data()'&gt;</v>
+        <v>&lt;tr onclick='load_data(Dictionary)'&gt;</v>
       </c>
       <c r="B41" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B41 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;辞書&lt;/td&gt;</v>
       </c>
       <c r="C41" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A41 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;Dictionary&lt;/td&gt;</v>
       </c>
       <c r="D41" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E41 &amp; "'&gt;" &amp; Sheet1!D41 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E41" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F41 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
       </c>
       <c r="F41" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G41 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">

--- a/大陸シリーズ目次順番.xlsx
+++ b/大陸シリーズ目次順番.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Downloads\TanoContSeries-TanoContBTAP4 b(7)\TanoContSeries-TanoContBTAP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611AEFD-5A90-4108-851A-0302B1911D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24919C2F-1470-4771-B65E-639792D2172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{E96F2A6A-F138-4C1D-8914-69711554E5DA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Dictionary</t>
   </si>
@@ -517,6 +517,17 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserTour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面説明</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -927,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8546C6-5C23-4432-926E-DD5F7D04EAE7}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A25" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1883,6 +1894,29 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
     </row>
@@ -1903,7 +1937,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A42" sqref="A42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2967,27 +3001,27 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f>"&lt;tr onclick='load_data(" &amp; Sheet1!A42 &amp; IF(Sheet1!C42, ", true", "") &amp;")'&gt;"</f>
-        <v>&lt;tr onclick='load_data()'&gt;</v>
+        <v>&lt;tr onclick='load_data(UserTour)'&gt;</v>
       </c>
       <c r="B42" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!B42 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;画面説明&lt;/td&gt;</v>
       </c>
       <c r="C42" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A42 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;UserTour&lt;/td&gt;</v>
       </c>
       <c r="D42" t="str">
         <f>"&lt;td&gt;&lt;div class='series_color_tag " &amp; Sheet1!E42 &amp; "'&gt;" &amp; Sheet1!D42 &amp; "&lt;/div&gt;&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
+        <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E42" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F42 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
       </c>
       <c r="F42" t="str">
         <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G42 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">

--- a/大陸シリーズ目次順番.xlsx
+++ b/大陸シリーズ目次順番.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Downloads\TanoContSeries-TanoContBTAP4 b(7)\TanoContSeries-TanoContBTAP4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du34f\Downloads\TanoContSeries-TanoContBTAP4 (13)as\TanoContSeries-TanoContBTAP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24919C2F-1470-4771-B65E-639792D2172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84602953-521F-4E82-B212-7AA2167F5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{E96F2A6A-F138-4C1D-8914-69711554E5DA}"/>
   </bookViews>
@@ -475,22 +475,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②HTMLが、関数の指定セルが変になることがあるので、調製する</t>
-    <rPh sb="7" eb="9">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヘン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③メモ帳などにHTMLの内容をはり付け、転記する</t>
     <rPh sb="3" eb="4">
       <t>チョウ</t>
@@ -528,6 +512,22 @@
     <t>画面説明</t>
     <rPh sb="0" eb="4">
       <t>ガメンセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②HTMLが、関数の指定セルが変になることがあるので、調整する</t>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,7 +905,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -922,12 +922,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8546C6-5C23-4432-926E-DD5F7D04EAE7}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -979,10 +979,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1899,10 +1899,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:F42"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1964,8 +1964,8 @@
         <v>&lt;tr onclick='load_data(Kazasaki2)'&gt;</v>
       </c>
       <c r="B2" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B2 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;第二章後編&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B2 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;第二章後編&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A2 &amp; "&lt;/td&gt;"</f>
@@ -1976,12 +1976,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag kazasaki'&gt;5.風咲&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E2" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F2 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;38&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F2 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;38&lt;/td&gt;</v>
       </c>
       <c r="F2" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G2 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G2 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;2&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1990,8 +1990,8 @@
         <v>&lt;tr onclick='load_data(Kazasaki)'&gt;</v>
       </c>
       <c r="B3" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B3 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;第二章前編&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B3 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;第二章前編&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C3" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A3 &amp; "&lt;/td&gt;"</f>
@@ -2002,12 +2002,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag kazasaki'&gt;5.風咲&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E3" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F3 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F3 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;37&lt;/td&gt;</v>
       </c>
       <c r="F3" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G3 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G3 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;3&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2016,8 +2016,8 @@
         <v>&lt;tr onclick='load_data(Mitsuyoshi, true)'&gt;</v>
       </c>
       <c r="B4" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B4 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;第一章&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B4 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;第一章&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C4" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A4 &amp; "&lt;/td&gt;"</f>
@@ -2028,12 +2028,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag kazasaki'&gt;5.風咲&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E4" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F4 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F4 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;36&lt;/td&gt;</v>
       </c>
       <c r="F4" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G4 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G4 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;1&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2042,8 +2042,8 @@
         <v>&lt;tr onclick='load_data(Nitori, true)'&gt;</v>
       </c>
       <c r="B5" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B5 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;二鳥からの手紙&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B5 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;二鳥からの手紙&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C5" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A5 &amp; "&lt;/td&gt;"</f>
@@ -2054,12 +2054,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E5" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F5 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F5 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;35&lt;/td&gt;</v>
       </c>
       <c r="F5" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G5 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G5 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;26&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -2068,8 +2068,8 @@
         <v>&lt;tr onclick='load_data(RNakia, true)'&gt;</v>
       </c>
       <c r="B6" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B6 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;伝説の復古&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B6 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;伝説の復古&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A6 &amp; "&lt;/td&gt;"</f>
@@ -2080,12 +2080,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag sana'&gt;4.サナ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E6" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F6 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F6 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;34&lt;/td&gt;</v>
       </c>
       <c r="F6" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;16&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G6 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;16&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -2094,8 +2094,8 @@
         <v>&lt;tr onclick='load_data(Habaic, true)'&gt;</v>
       </c>
       <c r="B7" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B7 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;流星の夜&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B7 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;流星の夜&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A7 &amp; "&lt;/td&gt;"</f>
@@ -2106,12 +2106,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag sana'&gt;4.サナ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E7" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F7 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F7 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;33&lt;/td&gt;</v>
       </c>
       <c r="F7" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G7 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;17&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -2120,8 +2120,8 @@
         <v>&lt;tr onclick='load_data(Utagemaru, true)'&gt;</v>
       </c>
       <c r="B8" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B8 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;宴丸の使命&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B8 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;宴丸の使命&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A8 &amp; "&lt;/td&gt;"</f>
@@ -2132,12 +2132,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E8" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F8 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F8 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;32&lt;/td&gt;</v>
       </c>
       <c r="F8" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G8 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G8 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;8&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2146,8 +2146,8 @@
         <v>&lt;tr onclick='load_data(Meiju)'&gt;</v>
       </c>
       <c r="B9" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B9 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;空船なりの忠誠&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B9 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;空船なりの忠誠&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A9 &amp; "&lt;/td&gt;"</f>
@@ -2158,12 +2158,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E9" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F9 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F9 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;31&lt;/td&gt;</v>
       </c>
       <c r="F9" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G9 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;4&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -2172,8 +2172,8 @@
         <v>&lt;tr onclick='load_data(Seri)'&gt;</v>
       </c>
       <c r="B10" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B10 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;カッターの戦略&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B10 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;カッターの戦略&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A10 &amp; "&lt;/td&gt;"</f>
@@ -2184,12 +2184,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E10" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F10 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F10 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;30&lt;/td&gt;</v>
       </c>
       <c r="F10" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G10 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;7&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -2198,8 +2198,8 @@
         <v>&lt;tr onclick='load_data(Uzinos)'&gt;</v>
       </c>
       <c r="B11" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B11 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;永王の衝撃&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B11 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;永王の衝撃&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A11 &amp; "&lt;/td&gt;"</f>
@@ -2210,12 +2210,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E11" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F11 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F11 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;29&lt;/td&gt;</v>
       </c>
       <c r="F11" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G11 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;6&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -2224,8 +2224,8 @@
         <v>&lt;tr onclick='load_data(Goeibara)'&gt;</v>
       </c>
       <c r="B12" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B12 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;永王への帰依&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B12 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;永王への帰依&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A12 &amp; "&lt;/td&gt;"</f>
@@ -2236,12 +2236,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E12" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F12 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F12 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;28&lt;/td&gt;</v>
       </c>
       <c r="F12" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G12 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;37&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G12 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;37&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -2250,8 +2250,8 @@
         <v>&lt;tr onclick='load_data(Gerufaru, true)'&gt;</v>
       </c>
       <c r="B13" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B13 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ゲルファルの身の上&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B13 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ゲルファルの身の上&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A13 &amp; "&lt;/td&gt;"</f>
@@ -2262,12 +2262,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E13" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F13 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F13 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;27&lt;/td&gt;</v>
       </c>
       <c r="F13" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G13 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;34&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G13 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;34&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -2276,8 +2276,8 @@
         <v>&lt;tr onclick='load_data(Gebu, true)'&gt;</v>
       </c>
       <c r="B14" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B14 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;迷い子ゲブ&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B14 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;迷い子ゲブ&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A14 &amp; "&lt;/td&gt;"</f>
@@ -2288,12 +2288,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E14" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F14 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;26&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F14 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;26&lt;/td&gt;</v>
       </c>
       <c r="F14" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G14 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G14 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;5&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -2302,8 +2302,8 @@
         <v>&lt;tr onclick='load_data(Paripero, true)'&gt;</v>
       </c>
       <c r="B15" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B15 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;禁忌知見集&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B15 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;禁忌知見集&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A15 &amp; "&lt;/td&gt;"</f>
@@ -2314,12 +2314,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E15" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F15 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F15 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;25&lt;/td&gt;</v>
       </c>
       <c r="F15" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G15 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G15 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;15&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2328,8 +2328,8 @@
         <v>&lt;tr onclick='load_data(Akisato, true)'&gt;</v>
       </c>
       <c r="B16" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B16 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ばせる様の進軍&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B16 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ばせる様の進軍&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A16 &amp; "&lt;/td&gt;"</f>
@@ -2340,12 +2340,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E16" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F16 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F16 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;24&lt;/td&gt;</v>
       </c>
       <c r="F16" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G16 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;12&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2354,8 +2354,8 @@
         <v>&lt;tr onclick='load_data(Baseru, true)'&gt;</v>
       </c>
       <c r="B17" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B17 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;あらわれるばせる様&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B17 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;あらわれるばせる様&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A17 &amp; "&lt;/td&gt;"</f>
@@ -2366,12 +2366,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E17" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F17 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F17 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;23&lt;/td&gt;</v>
       </c>
       <c r="F17" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G17 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G17 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;11&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2380,8 +2380,8 @@
         <v>&lt;tr onclick='load_data(Yoshine2, true)'&gt;</v>
       </c>
       <c r="B18" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B18 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ばせる様の暴動と芦音&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B18 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ばせる様の暴動と芦音&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A18 &amp; "&lt;/td&gt;"</f>
@@ -2392,12 +2392,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E18" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F18 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F18 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;22&lt;/td&gt;</v>
       </c>
       <c r="F18" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G18 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G18 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;14&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2406,8 +2406,8 @@
         <v>&lt;tr onclick='load_data(Umiao, true)'&gt;</v>
       </c>
       <c r="B19" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B19 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;緑ヶ淵の閉山&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B19 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;緑ヶ淵の閉山&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A19 &amp; "&lt;/td&gt;"</f>
@@ -2418,12 +2418,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E19" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F19 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F19 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;21&lt;/td&gt;</v>
       </c>
       <c r="F19" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G19 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G19 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;13&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2432,8 +2432,8 @@
         <v>&lt;tr onclick='load_data(Minda5_2)'&gt;</v>
       </c>
       <c r="B20" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B20 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;おわり、その先へ2&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B20 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;おわり、その先へ2&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A20 &amp; "&lt;/td&gt;"</f>
@@ -2444,12 +2444,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E20" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F20 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;20&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F20 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;20&lt;/td&gt;</v>
       </c>
       <c r="F20" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G20 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;36&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G20 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;36&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2458,8 +2458,8 @@
         <v>&lt;tr onclick='load_data(Minda5_1)'&gt;</v>
       </c>
       <c r="B21" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B21 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;おわり、その先へ1&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B21 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;おわり、その先へ1&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A21 &amp; "&lt;/td&gt;"</f>
@@ -2470,12 +2470,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E21" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F21 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F21 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;19&lt;/td&gt;</v>
       </c>
       <c r="F21" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G21 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;35&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G21 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;35&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2484,8 +2484,8 @@
         <v>&lt;tr onclick='load_data(Minda4)'&gt;</v>
       </c>
       <c r="B22" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B22 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;光の足音と背後&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B22 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;光の足音と背後&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A22 &amp; "&lt;/td&gt;"</f>
@@ -2496,12 +2496,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E22" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F22 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;18&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F22 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;18&lt;/td&gt;</v>
       </c>
       <c r="F22" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G22 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;33&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G22 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;33&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2510,8 +2510,8 @@
         <v>&lt;tr onclick='load_data(Hitami2, true)'&gt;</v>
       </c>
       <c r="B23" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B23 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;煙石様の再来&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B23 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;煙石様の再来&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A23 &amp; "&lt;/td&gt;"</f>
@@ -2522,12 +2522,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E23" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F23 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;17&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F23 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;17&lt;/td&gt;</v>
       </c>
       <c r="F23" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G23 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G23 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;30&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2536,8 +2536,8 @@
         <v>&lt;tr onclick='load_data(Kurokasa)'&gt;</v>
       </c>
       <c r="B24" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B24 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;大鹿が呼ぶ&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B24 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;大鹿が呼ぶ&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A24 &amp; "&lt;/td&gt;"</f>
@@ -2548,12 +2548,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E24" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F24 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;16&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F24 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;16&lt;/td&gt;</v>
       </c>
       <c r="F24" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G24 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;32&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G24 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;32&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2562,8 +2562,8 @@
         <v>&lt;tr onclick='load_data(Inome3, true)'&gt;</v>
       </c>
       <c r="B25" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B25 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;猪目の失態と動揺&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B25 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;猪目の失態と動揺&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A25 &amp; "&lt;/td&gt;"</f>
@@ -2574,12 +2574,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E25" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F25 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;15&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F25 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;15&lt;/td&gt;</v>
       </c>
       <c r="F25" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G25 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;25&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G25 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;25&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -2588,8 +2588,8 @@
         <v>&lt;tr onclick='load_data(Minda3, true)'&gt;</v>
       </c>
       <c r="B26" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B26 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ミンダの夢と黒傘の不安&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B26 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ミンダの夢と黒傘の不安&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A26 &amp; "&lt;/td&gt;"</f>
@@ -2600,12 +2600,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E26" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F26 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;14&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F26 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;14&lt;/td&gt;</v>
       </c>
       <c r="F26" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G26 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;24&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G26 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;24&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2614,8 +2614,8 @@
         <v>&lt;tr onclick='load_data(Inome2)'&gt;</v>
       </c>
       <c r="B27" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B27 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;揺れ動く猪目&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B27 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;揺れ動く猪目&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A27 &amp; "&lt;/td&gt;"</f>
@@ -2626,12 +2626,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E27" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F27 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;13&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F27 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;13&lt;/td&gt;</v>
       </c>
       <c r="F27" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G27 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G27 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;9&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2640,8 +2640,8 @@
         <v>&lt;tr onclick='load_data(Hitami, true)'&gt;</v>
       </c>
       <c r="B28" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B28 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ひたみの苦悩&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B28 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ひたみの苦悩&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A28 &amp; "&lt;/td&gt;"</f>
@@ -2652,12 +2652,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda2'&gt;2.ミンダ後編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E28" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F28 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;12&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F28 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;12&lt;/td&gt;</v>
       </c>
       <c r="F28" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G28 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;27&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G28 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;27&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2666,8 +2666,8 @@
         <v>&lt;tr onclick='load_data(Yoshine)'&gt;</v>
       </c>
       <c r="B29" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B29 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;爆薬運搬任務&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B29 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;爆薬運搬任務&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A29 &amp; "&lt;/td&gt;"</f>
@@ -2678,12 +2678,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E29" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F29 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;11&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F29 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;11&lt;/td&gt;</v>
       </c>
       <c r="F29" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G29 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;29&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G29 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;29&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2692,8 +2692,8 @@
         <v>&lt;tr onclick='load_data(Ippu)'&gt;</v>
       </c>
       <c r="B30" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B30 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;大鉱機の計画&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B30 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;大鉱機の計画&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A30 &amp; "&lt;/td&gt;"</f>
@@ -2704,12 +2704,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E30" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F30 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F30 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;10&lt;/td&gt;</v>
       </c>
       <c r="F30" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G30 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;28&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G30 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;28&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -2718,8 +2718,8 @@
         <v>&lt;tr onclick='load_data(Suihoun, true)'&gt;</v>
       </c>
       <c r="B31" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B31 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;乾いた大地、氷の大地&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B31 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;乾いた大地、氷の大地&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A31 &amp; "&lt;/td&gt;"</f>
@@ -2730,12 +2730,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E31" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F31 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;9&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F31 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;9&lt;/td&gt;</v>
       </c>
       <c r="F31" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G31 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G31 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;20&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2744,8 +2744,8 @@
         <v>&lt;tr onclick='load_data(Fumi)'&gt;</v>
       </c>
       <c r="B32" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B32 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;五黒家と根の教会&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B32 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;五黒家と根の教会&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A32 &amp; "&lt;/td&gt;"</f>
@@ -2756,12 +2756,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E32" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F32 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;8&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F32 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;8&lt;/td&gt;</v>
       </c>
       <c r="F32" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G32 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G32 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;21&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2770,8 +2770,8 @@
         <v>&lt;tr onclick='load_data(Baruru)'&gt;</v>
       </c>
       <c r="B33" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B33 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;バルルとニシン&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B33 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;バルルとニシン&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A33 &amp; "&lt;/td&gt;"</f>
@@ -2782,12 +2782,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E33" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F33 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;7&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F33 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;7&lt;/td&gt;</v>
       </c>
       <c r="F33" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G33 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;31&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G33 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;31&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2796,8 +2796,8 @@
         <v>&lt;tr onclick='load_data(Sachi)'&gt;</v>
       </c>
       <c r="B34" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B34 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;白霧鉄山にて&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B34 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;白霧鉄山にて&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A34 &amp; "&lt;/td&gt;"</f>
@@ -2808,12 +2808,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E34" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F34 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;6&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F34 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;6&lt;/td&gt;</v>
       </c>
       <c r="F34" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G34 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;23&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G34 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;23&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2822,8 +2822,8 @@
         <v>&lt;tr onclick='load_data(Sakuma)'&gt;</v>
       </c>
       <c r="B35" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B35 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;池家さくまの雑務&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B35 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;池家さくまの雑務&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A35 &amp; "&lt;/td&gt;"</f>
@@ -2834,12 +2834,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E35" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F35 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;5&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F35 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;5&lt;/td&gt;</v>
       </c>
       <c r="F35" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G35 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;22&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G35 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;22&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2848,8 +2848,8 @@
         <v>&lt;tr onclick='load_data(Inome)'&gt;</v>
       </c>
       <c r="B36" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B36 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;猪目 遥音の出張&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B36 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;猪目 遥音の出張&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A36 &amp; "&lt;/td&gt;"</f>
@@ -2860,12 +2860,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E36" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F36 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;4&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F36 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;4&lt;/td&gt;</v>
       </c>
       <c r="F36" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G36 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;18&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G36 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;18&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2874,8 +2874,8 @@
         <v>&lt;tr onclick='load_data(Minda2)'&gt;</v>
       </c>
       <c r="B37" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B37 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;ミンダと赤い魚&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B37 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;ミンダと赤い魚&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C37" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A37 &amp; "&lt;/td&gt;"</f>
@@ -2886,12 +2886,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E37" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F37 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;3&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F37 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;3&lt;/td&gt;</v>
       </c>
       <c r="F37" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G37 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;19&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G37 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;19&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2900,8 +2900,8 @@
         <v>&lt;tr onclick='load_data(Minda)'&gt;</v>
       </c>
       <c r="B38" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B38 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;黒縄のミンダ&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B38 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;黒縄のミンダ&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C38" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A38 &amp; "&lt;/td&gt;"</f>
@@ -2912,12 +2912,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag minda1'&gt;1.ミンダ前編&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E38" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F38 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;2&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F38 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;2&lt;/td&gt;</v>
       </c>
       <c r="F38" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G38 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G38 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;10&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2926,8 +2926,8 @@
         <v>&lt;tr onclick='load_data(Kunugi)'&gt;</v>
       </c>
       <c r="B39" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B39 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;櫟木の一日&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B39 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;櫟木の一日&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A39 &amp; "&lt;/td&gt;"</f>
@@ -2938,12 +2938,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag variation'&gt;3.多様&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E39" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F39 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;1&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F39 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;1&lt;/td&gt;</v>
       </c>
       <c r="F39" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G39 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;38&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G39 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;38&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2952,8 +2952,8 @@
         <v>&lt;tr onclick='load_data(Abstract)'&gt;</v>
       </c>
       <c r="B40" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B40 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;あらすじ&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B40 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;あらすじ&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A40 &amp; "&lt;/td&gt;"</f>
@@ -2964,12 +2964,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E40" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F40 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F40 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;</v>
       </c>
       <c r="F40" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G40 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G40 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2978,8 +2978,8 @@
         <v>&lt;tr onclick='load_data(Dictionary)'&gt;</v>
       </c>
       <c r="B41" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B41 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;辞書&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B41 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;辞書&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C41" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A41 &amp; "&lt;/td&gt;"</f>
@@ -2990,12 +2990,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E41" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F41 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F41 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;</v>
       </c>
       <c r="F41" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G41 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G41 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -3004,8 +3004,8 @@
         <v>&lt;tr onclick='load_data(UserTour)'&gt;</v>
       </c>
       <c r="B42" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B42 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;画面説明&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B42 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;画面説明&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C42" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A42 &amp; "&lt;/td&gt;"</f>
@@ -3016,12 +3016,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag meta'&gt;0.メタ&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E42" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F42 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F42 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;</v>
       </c>
       <c r="F42" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G42 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G42 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;0&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -3030,8 +3030,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B43" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B43 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B43 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C43" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A43 &amp; "&lt;/td&gt;"</f>
@@ -3042,12 +3042,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E43" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F43 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F43 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F43" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G43 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G43 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -3056,8 +3056,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B44" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B44 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B44 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C44" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A44 &amp; "&lt;/td&gt;"</f>
@@ -3068,12 +3068,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E44" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F44 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F44 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F44" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G44 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G44 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -3082,8 +3082,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B45" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B45 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B45 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C45" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A45 &amp; "&lt;/td&gt;"</f>
@@ -3094,12 +3094,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E45" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F45 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F45 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F45" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G45 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G45 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -3108,8 +3108,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B46" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B46 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B46 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C46" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A46 &amp; "&lt;/td&gt;"</f>
@@ -3120,12 +3120,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E46" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F46 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F46 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F46" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G46 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G46 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -3134,8 +3134,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B47" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B47 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B47 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C47" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A47 &amp; "&lt;/td&gt;"</f>
@@ -3146,12 +3146,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E47" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F47 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F47 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F47" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G47 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G47 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -3160,8 +3160,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B48" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B48 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B48 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C48" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A48 &amp; "&lt;/td&gt;"</f>
@@ -3172,12 +3172,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E48" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F48 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F48 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F48" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G48 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G48 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -3186,8 +3186,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B49" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B49 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B49 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C49" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A49 &amp; "&lt;/td&gt;"</f>
@@ -3198,12 +3198,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E49" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F49 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F49 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F49" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G49 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G49 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -3212,8 +3212,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B50" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B50 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B50 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C50" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A50 &amp; "&lt;/td&gt;"</f>
@@ -3224,12 +3224,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E50" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F50 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F50 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F50" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G50 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G50 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -3238,8 +3238,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B51" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B51 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B51 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C51" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A51 &amp; "&lt;/td&gt;"</f>
@@ -3250,12 +3250,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E51" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F51 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F51 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F51" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G51 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G51 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -3264,8 +3264,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B52" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B52 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B52 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C52" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A52 &amp; "&lt;/td&gt;"</f>
@@ -3276,12 +3276,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E52" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F52 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F52 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F52" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G52 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G52 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -3290,8 +3290,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B53" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B53 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B53 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C53" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A53 &amp; "&lt;/td&gt;"</f>
@@ -3302,12 +3302,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E53" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F53 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F53 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F53" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G53 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G53 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -3316,8 +3316,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B54" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B54 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B54 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C54" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A54 &amp; "&lt;/td&gt;"</f>
@@ -3328,12 +3328,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E54" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F54 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F54 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F54" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G54 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G54 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -3342,8 +3342,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B55" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B55 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B55 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C55" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A55 &amp; "&lt;/td&gt;"</f>
@@ -3354,12 +3354,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E55" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F55 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F55 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F55" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G55 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G55 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -3368,8 +3368,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B56" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B56 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B56 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C56" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A56 &amp; "&lt;/td&gt;"</f>
@@ -3380,12 +3380,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E56" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F56 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F56 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F56" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G56 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G56 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -3394,8 +3394,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B57" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B57 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B57 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C57" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A57 &amp; "&lt;/td&gt;"</f>
@@ -3406,12 +3406,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E57" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F57 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F57 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F57" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G57 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G57 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -3420,8 +3420,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B58" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B58 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B58 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C58" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A58 &amp; "&lt;/td&gt;"</f>
@@ -3432,12 +3432,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E58" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F58 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F58 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F58" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G58 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G58 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -3446,8 +3446,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B59" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B59 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B59 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C59" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A59 &amp; "&lt;/td&gt;"</f>
@@ -3458,12 +3458,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E59" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F59 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F59 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F59" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G59 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G59 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -3472,8 +3472,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B60" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B60 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B60 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C60" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A60 &amp; "&lt;/td&gt;"</f>
@@ -3484,12 +3484,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E60" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F60 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F60 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F60" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G60 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G60 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -3498,8 +3498,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B61" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B61 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B61 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C61" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A61 &amp; "&lt;/td&gt;"</f>
@@ -3510,12 +3510,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E61" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F61 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F61 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F61" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G61 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G61 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -3524,8 +3524,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B62" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B62 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B62 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C62" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A62 &amp; "&lt;/td&gt;"</f>
@@ -3536,12 +3536,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E62" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F62 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F62 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F62" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G62 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G62 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -3550,8 +3550,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B63" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B63 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B63 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C63" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A63 &amp; "&lt;/td&gt;"</f>
@@ -3562,12 +3562,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E63" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F63 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F63 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F63" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G63 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G63 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -3576,8 +3576,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B64" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B64 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B64 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C64" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A64 &amp; "&lt;/td&gt;"</f>
@@ -3588,12 +3588,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E64" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F64 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F64 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F64" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G64 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G64 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -3602,8 +3602,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B65" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B65 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B65 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C65" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A65 &amp; "&lt;/td&gt;"</f>
@@ -3614,12 +3614,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E65" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F65 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F65 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F65" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G65 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G65 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3628,8 +3628,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B66" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B66 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B66 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C66" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A66 &amp; "&lt;/td&gt;"</f>
@@ -3640,12 +3640,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E66" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F66 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F66 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F66" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G66 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G66 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -3654,8 +3654,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B67" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B67 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B67 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C67" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A67 &amp; "&lt;/td&gt;"</f>
@@ -3666,12 +3666,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E67" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F67 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F67 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F67" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G67 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G67 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -3680,8 +3680,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B68" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B68 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B68 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C68" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A68 &amp; "&lt;/td&gt;"</f>
@@ -3692,12 +3692,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E68" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F68 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F68 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F68" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G68 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G68 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -3706,8 +3706,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B69" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B69 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B69 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C69" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A69 &amp; "&lt;/td&gt;"</f>
@@ -3718,12 +3718,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E69" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F69 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F69 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F69" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G69 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G69 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -3732,8 +3732,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B70" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B70 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B70 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C70" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A70 &amp; "&lt;/td&gt;"</f>
@@ -3744,12 +3744,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E70" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F70 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F70 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F70" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G70 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G70 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -3758,8 +3758,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B71" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B71 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B71 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C71" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A71 &amp; "&lt;/td&gt;"</f>
@@ -3770,12 +3770,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E71" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F71 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F71 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F71" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G71 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G71 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3784,8 +3784,8 @@
         <v>&lt;tr onclick='load_data()'&gt;</v>
       </c>
       <c r="B72" t="str">
-        <f>"&lt;td&gt;" &amp; Sheet1!B72 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td&gt;&lt;/td&gt;</v>
+        <f>"&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;" &amp; Sheet1!B72 &amp; "&lt;/a&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;a href='#' class='a_without_underline'&gt;&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C72" t="str">
         <f>"&lt;td&gt;" &amp; Sheet1!A72 &amp; "&lt;/td&gt;"</f>
@@ -3796,12 +3796,12 @@
         <v>&lt;td&gt;&lt;div class='series_color_tag '&gt;&lt;/div&gt;&lt;/td&gt;</v>
       </c>
       <c r="E72" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!F72 &amp; "&lt;/td&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!F72 &amp; "&lt;/td&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;</v>
       </c>
       <c r="F72" t="str">
-        <f>"&lt;td style='display:none'&gt;" &amp; Sheet1!G72 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
-        <v>&lt;td style='display:none'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
+        <f>"&lt;td class='hidden_th'&gt;" &amp; Sheet1!G72 &amp; "&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;td class='hidden_th'&gt;&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
